--- a/biology/Botanique/Liste_des_espèces_du_genre_Ipomoea/Liste_des_espèces_du_genre_Ipomoea.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Ipomoea/Liste_des_espèces_du_genre_Ipomoea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Ipomoea</t>
+          <t>Liste_des_espèces_du_genre_Ipomoea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La liste des espèces du genre Ipomoea  comprend près de 450 noms d'espèces acceptées, ce qui fait de ce genre de loin le plus important de la famille des Convolvulaceae, devant le genre Convolvulus (environ 250 espèces) et le place au 43e rang des plus grands genres d'Angiospermes. Selon la base de données The Plant List, 1823  espèces rattachées au genre Ipomoea ont été décrites, mais seules 449 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 488 sont considérées comme des synonymes, et 786 comme mal appliquées[1].
-Ce genre, qui comprend des plantes herbacées vivaces, rarement annuelles, ou des arbustes, aux tiges souvent volubiles, parfois prostrées ou flottantes, aux feuilles entières, lobées ou divisées et aux fleurs pentamères, à corolle soudée, campanulée ou en entonnoir, est présent principalement dans les régions tropicales, subtropicales et tempérées chaudes, particulièrement en Amérique[2].
+La liste des espèces du genre Ipomoea  comprend près de 450 noms d'espèces acceptées, ce qui fait de ce genre de loin le plus important de la famille des Convolvulaceae, devant le genre Convolvulus (environ 250 espèces) et le place au 43e rang des plus grands genres d'Angiospermes. Selon la base de données The Plant List, 1823  espèces rattachées au genre Ipomoea ont été décrites, mais seules 449 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 488 sont considérées comme des synonymes, et 786 comme mal appliquées.
+Ce genre, qui comprend des plantes herbacées vivaces, rarement annuelles, ou des arbustes, aux tiges souvent volubiles, parfois prostrées ou flottantes, aux feuilles entières, lobées ou divisées et aux fleurs pentamères, à corolle soudée, campanulée ou en entonnoir, est présent principalement dans les régions tropicales, subtropicales et tempérées chaudes, particulièrement en Amérique.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Ipomoea</t>
+          <t>Liste_des_espèces_du_genre_Ipomoea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 mai 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 mai 2020) :
 Ipomoea abrupta R.Br. (1810)
 Ipomoea abutiloides (Kunth) G.Don (1837)
 Ipomoea abyssinica (Choisy) Hochst. (1852)
@@ -1274,7 +1288,7 @@
 Ipomoea walpersiana Duchass. ex Urb. (1902)
 Ipomoea walteri J.R.I.Wood &amp; Scotland (2017)
 Ipomoea wangii C.Y.Wu (1965)
-Ipo</t>
+Ipomoe</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1298,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Ipomoea</t>
+          <t>Liste_des_espèces_du_genre_Ipomoea</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1302,7 +1316,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ipomoea noemana E.Jara, P.Muñoz &amp; H.Beltrán, 2020</t>
         </is>
